--- a/REGULAR/OJT/DIMAPILIS ANTHONY A..xlsx
+++ b/REGULAR/OJT/DIMAPILIS ANTHONY A..xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="281">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1932,7 +1932,7 @@
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3525" topLeftCell="A493" activePane="bottomLeft"/>
       <selection activeCell="B10" sqref="B10"/>
-      <selection pane="bottomLeft" activeCell="B504" sqref="B504"/>
+      <selection pane="bottomLeft" activeCell="K505" sqref="K505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2105,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>259.875</v>
+        <v>258.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13271,7 +13271,9 @@
       <c r="A504" s="40">
         <v>45078</v>
       </c>
-      <c r="B504" s="20"/>
+      <c r="B504" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C504" s="13"/>
       <c r="D504" s="39"/>
       <c r="E504" s="9"/>
@@ -13280,10 +13282,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H504" s="39"/>
+      <c r="H504" s="39">
+        <v>1</v>
+      </c>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20"/>
+      <c r="K504" s="49">
+        <v>45106</v>
+      </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
